--- a/src/assets/content/estados-financieros/2022/tercer-trimestre/02_INFORMACION_PRESUPUESTARIA/05_ESTADO_ANALITICO_DE_EGRESOS_CLASIFICICAION_FUNCIONAL.xlsx
+++ b/src/assets/content/estados-financieros/2022/tercer-trimestre/02_INFORMACION_PRESUPUESTARIA/05_ESTADO_ANALITICO_DE_EGRESOS_CLASIFICICAION_FUNCIONAL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2022\3.-3ER TRIMESTRE\INFORMACION FINANCIERA 3er trim\2.- INFORMACION PRESUPUESTARIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE32AAE2-2EBB-449B-987A-8AF0793681A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809FD83C-955E-4E9F-AA2C-44415286C2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{431C22E4-51B7-4172-A187-4714467B60D3}"/>
   </bookViews>
@@ -442,8 +442,65 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -456,90 +513,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -866,916 +869,916 @@
   <dimension ref="B2:I45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" style="4"/>
-    <col min="2" max="2" width="1.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="79" style="4" customWidth="1"/>
-    <col min="4" max="9" width="18.28515625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="12" style="4"/>
+    <col min="1" max="1" width="12" style="1"/>
+    <col min="2" max="2" width="1.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="79" style="1" customWidth="1"/>
+    <col min="4" max="9" width="18.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="12" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
+      <c r="B2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="7" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14">
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="3">
         <v>4</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="3">
         <v>5</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17">
+      <c r="C6" s="5"/>
+      <c r="D6" s="6">
         <v>2960534.63</v>
       </c>
-      <c r="E6" s="17">
-        <v>0</v>
-      </c>
-      <c r="F6" s="17">
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
         <v>2960534.63</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="6">
         <v>1263780.49</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="6">
         <v>1263780.49</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="6">
         <v>1696754.14</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="18"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="20">
-        <v>0</v>
-      </c>
-      <c r="E7" s="20">
-        <v>0</v>
-      </c>
-      <c r="F7" s="20">
-        <v>0</v>
-      </c>
-      <c r="G7" s="20">
-        <v>0</v>
-      </c>
-      <c r="H7" s="20">
-        <v>0</v>
-      </c>
-      <c r="I7" s="20">
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="18"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="20">
-        <v>0</v>
-      </c>
-      <c r="E8" s="20">
-        <v>0</v>
-      </c>
-      <c r="F8" s="20">
-        <v>0</v>
-      </c>
-      <c r="G8" s="20">
-        <v>0</v>
-      </c>
-      <c r="H8" s="20">
-        <v>0</v>
-      </c>
-      <c r="I8" s="20">
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="18"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="9">
         <v>2960534.63</v>
       </c>
-      <c r="E9" s="20">
-        <v>0</v>
-      </c>
-      <c r="F9" s="20">
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
         <v>2960534.63</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="9">
         <v>1263780.49</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="9">
         <v>1263780.49</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="9">
         <v>1696754.14</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="18"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="20">
-        <v>0</v>
-      </c>
-      <c r="E10" s="20">
-        <v>0</v>
-      </c>
-      <c r="F10" s="20">
-        <v>0</v>
-      </c>
-      <c r="G10" s="20">
-        <v>0</v>
-      </c>
-      <c r="H10" s="20">
-        <v>0</v>
-      </c>
-      <c r="I10" s="20">
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="20">
-        <v>0</v>
-      </c>
-      <c r="E11" s="20">
-        <v>0</v>
-      </c>
-      <c r="F11" s="20">
-        <v>0</v>
-      </c>
-      <c r="G11" s="20">
-        <v>0</v>
-      </c>
-      <c r="H11" s="20">
-        <v>0</v>
-      </c>
-      <c r="I11" s="20">
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="18"/>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="20">
-        <v>0</v>
-      </c>
-      <c r="E12" s="20">
-        <v>0</v>
-      </c>
-      <c r="F12" s="20">
-        <v>0</v>
-      </c>
-      <c r="G12" s="20">
-        <v>0</v>
-      </c>
-      <c r="H12" s="20">
-        <v>0</v>
-      </c>
-      <c r="I12" s="20">
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="18"/>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="20">
-        <v>0</v>
-      </c>
-      <c r="E13" s="20">
-        <v>0</v>
-      </c>
-      <c r="F13" s="20">
-        <v>0</v>
-      </c>
-      <c r="G13" s="20">
-        <v>0</v>
-      </c>
-      <c r="H13" s="20">
-        <v>0</v>
-      </c>
-      <c r="I13" s="20">
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="18"/>
-      <c r="C14" s="19" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="20">
-        <v>0</v>
-      </c>
-      <c r="E14" s="20">
-        <v>0</v>
-      </c>
-      <c r="F14" s="20">
-        <v>0</v>
-      </c>
-      <c r="G14" s="20">
-        <v>0</v>
-      </c>
-      <c r="H14" s="20">
-        <v>0</v>
-      </c>
-      <c r="I14" s="20">
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="17">
+      <c r="C15" s="10"/>
+      <c r="D15" s="6">
         <v>48991115.369999997</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="6">
         <v>6097115.4100000001</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="6">
         <v>55088230.780000001</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="6">
         <v>37039975.409999996</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="6">
         <v>37039975.409999996</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="6">
         <v>18048255.370000005</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="18"/>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="20">
-        <v>0</v>
-      </c>
-      <c r="E16" s="20">
-        <v>0</v>
-      </c>
-      <c r="F16" s="20">
-        <v>0</v>
-      </c>
-      <c r="G16" s="20">
-        <v>0</v>
-      </c>
-      <c r="H16" s="20">
-        <v>0</v>
-      </c>
-      <c r="I16" s="20">
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="18"/>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="20">
-        <v>0</v>
-      </c>
-      <c r="E17" s="20">
-        <v>0</v>
-      </c>
-      <c r="F17" s="20">
-        <v>0</v>
-      </c>
-      <c r="G17" s="20">
-        <v>0</v>
-      </c>
-      <c r="H17" s="20">
-        <v>0</v>
-      </c>
-      <c r="I17" s="20">
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="18"/>
-      <c r="C18" s="19" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="20">
-        <v>0</v>
-      </c>
-      <c r="E18" s="20">
-        <v>0</v>
-      </c>
-      <c r="F18" s="20">
-        <v>0</v>
-      </c>
-      <c r="G18" s="20">
-        <v>0</v>
-      </c>
-      <c r="H18" s="20">
-        <v>0</v>
-      </c>
-      <c r="I18" s="20">
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="18"/>
-      <c r="C19" s="19" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="20">
-        <v>0</v>
-      </c>
-      <c r="E19" s="20">
-        <v>0</v>
-      </c>
-      <c r="F19" s="20">
-        <v>0</v>
-      </c>
-      <c r="G19" s="20">
-        <v>0</v>
-      </c>
-      <c r="H19" s="20">
-        <v>0</v>
-      </c>
-      <c r="I19" s="20">
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="18"/>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="9">
         <v>48991115.369999997</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="9">
         <v>6097115.4100000001</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="9">
         <v>55088230.780000001</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="9">
         <v>37039975.409999996</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="9">
         <v>37039975.409999996</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="9">
         <v>18048255.370000005</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="18"/>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="20">
-        <v>0</v>
-      </c>
-      <c r="E21" s="20">
-        <v>0</v>
-      </c>
-      <c r="F21" s="20">
-        <v>0</v>
-      </c>
-      <c r="G21" s="20">
-        <v>0</v>
-      </c>
-      <c r="H21" s="20">
-        <v>0</v>
-      </c>
-      <c r="I21" s="20">
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="18"/>
-      <c r="C22" s="19" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="20">
-        <v>0</v>
-      </c>
-      <c r="E22" s="20">
-        <v>0</v>
-      </c>
-      <c r="F22" s="20">
-        <v>0</v>
-      </c>
-      <c r="G22" s="20">
-        <v>0</v>
-      </c>
-      <c r="H22" s="20">
-        <v>0</v>
-      </c>
-      <c r="I22" s="20">
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="17">
-        <v>0</v>
-      </c>
-      <c r="E23" s="17">
-        <v>0</v>
-      </c>
-      <c r="F23" s="17">
-        <v>0</v>
-      </c>
-      <c r="G23" s="17">
-        <v>0</v>
-      </c>
-      <c r="H23" s="17">
-        <v>0</v>
-      </c>
-      <c r="I23" s="17">
+      <c r="C23" s="10"/>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="18"/>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="20">
-        <v>0</v>
-      </c>
-      <c r="E24" s="20">
-        <v>0</v>
-      </c>
-      <c r="F24" s="20">
-        <v>0</v>
-      </c>
-      <c r="G24" s="20">
-        <v>0</v>
-      </c>
-      <c r="H24" s="20">
-        <v>0</v>
-      </c>
-      <c r="I24" s="20">
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="18"/>
-      <c r="C25" s="19" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="20">
-        <v>0</v>
-      </c>
-      <c r="E25" s="20">
-        <v>0</v>
-      </c>
-      <c r="F25" s="20">
-        <v>0</v>
-      </c>
-      <c r="G25" s="20">
-        <v>0</v>
-      </c>
-      <c r="H25" s="20">
-        <v>0</v>
-      </c>
-      <c r="I25" s="20">
+      <c r="D25" s="9">
+        <v>0</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="18"/>
-      <c r="C26" s="19" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="20">
-        <v>0</v>
-      </c>
-      <c r="E26" s="20">
-        <v>0</v>
-      </c>
-      <c r="F26" s="20">
-        <v>0</v>
-      </c>
-      <c r="G26" s="20">
-        <v>0</v>
-      </c>
-      <c r="H26" s="20">
-        <v>0</v>
-      </c>
-      <c r="I26" s="20">
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="18"/>
-      <c r="C27" s="19" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="20">
-        <v>0</v>
-      </c>
-      <c r="E27" s="20">
-        <v>0</v>
-      </c>
-      <c r="F27" s="20">
-        <v>0</v>
-      </c>
-      <c r="G27" s="20">
-        <v>0</v>
-      </c>
-      <c r="H27" s="20">
-        <v>0</v>
-      </c>
-      <c r="I27" s="20">
+      <c r="D27" s="9">
+        <v>0</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="18"/>
-      <c r="C28" s="19" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="20">
-        <v>0</v>
-      </c>
-      <c r="E28" s="20">
-        <v>0</v>
-      </c>
-      <c r="F28" s="20">
-        <v>0</v>
-      </c>
-      <c r="G28" s="20">
-        <v>0</v>
-      </c>
-      <c r="H28" s="20">
-        <v>0</v>
-      </c>
-      <c r="I28" s="20">
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="18"/>
-      <c r="C29" s="19" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="20">
-        <v>0</v>
-      </c>
-      <c r="E29" s="20">
-        <v>0</v>
-      </c>
-      <c r="F29" s="20">
-        <v>0</v>
-      </c>
-      <c r="G29" s="20">
-        <v>0</v>
-      </c>
-      <c r="H29" s="20">
-        <v>0</v>
-      </c>
-      <c r="I29" s="20">
+      <c r="D29" s="9">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="18"/>
-      <c r="C30" s="19" t="s">
+      <c r="B30" s="7"/>
+      <c r="C30" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="20">
-        <v>0</v>
-      </c>
-      <c r="E30" s="20">
-        <v>0</v>
-      </c>
-      <c r="F30" s="20">
-        <v>0</v>
-      </c>
-      <c r="G30" s="20">
-        <v>0</v>
-      </c>
-      <c r="H30" s="20">
-        <v>0</v>
-      </c>
-      <c r="I30" s="20">
+      <c r="D30" s="9">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9">
+        <v>0</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0</v>
+      </c>
+      <c r="I30" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="18"/>
-      <c r="C31" s="19" t="s">
+      <c r="B31" s="7"/>
+      <c r="C31" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="20">
-        <v>0</v>
-      </c>
-      <c r="E31" s="20">
-        <v>0</v>
-      </c>
-      <c r="F31" s="20">
-        <v>0</v>
-      </c>
-      <c r="G31" s="20">
-        <v>0</v>
-      </c>
-      <c r="H31" s="20">
-        <v>0</v>
-      </c>
-      <c r="I31" s="20">
+      <c r="D31" s="9">
+        <v>0</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0</v>
+      </c>
+      <c r="F31" s="9">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0</v>
+      </c>
+      <c r="I31" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="18"/>
-      <c r="C32" s="19" t="s">
+      <c r="B32" s="7"/>
+      <c r="C32" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="20">
-        <v>0</v>
-      </c>
-      <c r="E32" s="20">
-        <v>0</v>
-      </c>
-      <c r="F32" s="20">
-        <v>0</v>
-      </c>
-      <c r="G32" s="20">
-        <v>0</v>
-      </c>
-      <c r="H32" s="20">
-        <v>0</v>
-      </c>
-      <c r="I32" s="20">
+      <c r="D32" s="9">
+        <v>0</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0</v>
+      </c>
+      <c r="F32" s="9">
+        <v>0</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0</v>
+      </c>
+      <c r="I32" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="17">
-        <v>0</v>
-      </c>
-      <c r="E33" s="17">
-        <v>0</v>
-      </c>
-      <c r="F33" s="17">
-        <v>0</v>
-      </c>
-      <c r="G33" s="17">
-        <v>0</v>
-      </c>
-      <c r="H33" s="17">
-        <v>0</v>
-      </c>
-      <c r="I33" s="17">
+      <c r="C33" s="10"/>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+      <c r="I33" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="18"/>
-      <c r="C34" s="19" t="s">
+      <c r="B34" s="7"/>
+      <c r="C34" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="20">
-        <v>0</v>
-      </c>
-      <c r="E34" s="20">
-        <v>0</v>
-      </c>
-      <c r="F34" s="20">
-        <v>0</v>
-      </c>
-      <c r="G34" s="20">
-        <v>0</v>
-      </c>
-      <c r="H34" s="20">
-        <v>0</v>
-      </c>
-      <c r="I34" s="20">
+      <c r="D34" s="9">
+        <v>0</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0</v>
+      </c>
+      <c r="F34" s="9">
+        <v>0</v>
+      </c>
+      <c r="G34" s="9">
+        <v>0</v>
+      </c>
+      <c r="H34" s="9">
+        <v>0</v>
+      </c>
+      <c r="I34" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="18"/>
-      <c r="C35" s="19" t="s">
+      <c r="B35" s="7"/>
+      <c r="C35" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="20">
-        <v>0</v>
-      </c>
-      <c r="E35" s="20">
-        <v>0</v>
-      </c>
-      <c r="F35" s="20">
-        <v>0</v>
-      </c>
-      <c r="G35" s="20">
-        <v>0</v>
-      </c>
-      <c r="H35" s="20">
-        <v>0</v>
-      </c>
-      <c r="I35" s="20">
+      <c r="D35" s="9">
+        <v>0</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0</v>
+      </c>
+      <c r="F35" s="9">
+        <v>0</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0</v>
+      </c>
+      <c r="H35" s="9">
+        <v>0</v>
+      </c>
+      <c r="I35" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="18"/>
-      <c r="C36" s="19" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="20">
-        <v>0</v>
-      </c>
-      <c r="E36" s="20">
-        <v>0</v>
-      </c>
-      <c r="F36" s="20">
-        <v>0</v>
-      </c>
-      <c r="G36" s="20">
-        <v>0</v>
-      </c>
-      <c r="H36" s="20">
-        <v>0</v>
-      </c>
-      <c r="I36" s="20">
+      <c r="D36" s="9">
+        <v>0</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0</v>
+      </c>
+      <c r="F36" s="9">
+        <v>0</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0</v>
+      </c>
+      <c r="H36" s="9">
+        <v>0</v>
+      </c>
+      <c r="I36" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="18"/>
-      <c r="C37" s="19" t="s">
+      <c r="B37" s="7"/>
+      <c r="C37" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="20">
-        <v>0</v>
-      </c>
-      <c r="E37" s="20">
-        <v>0</v>
-      </c>
-      <c r="F37" s="20">
-        <v>0</v>
-      </c>
-      <c r="G37" s="20">
-        <v>0</v>
-      </c>
-      <c r="H37" s="20">
-        <v>0</v>
-      </c>
-      <c r="I37" s="20">
+      <c r="D37" s="9">
+        <v>0</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0</v>
+      </c>
+      <c r="F37" s="9">
+        <v>0</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0</v>
+      </c>
+      <c r="I37" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="22"/>
-      <c r="C38" s="23" t="s">
+      <c r="B38" s="11"/>
+      <c r="C38" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="13">
         <v>51951650</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="13">
         <v>6097115.4100000001</v>
       </c>
-      <c r="F38" s="24">
+      <c r="F38" s="13">
         <v>58048765.410000004</v>
       </c>
-      <c r="G38" s="24">
+      <c r="G38" s="13">
         <v>38303755.899999999</v>
       </c>
-      <c r="H38" s="24">
+      <c r="H38" s="13">
         <v>38303755.899999999</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I38" s="13">
         <v>19745009.510000005</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="12" x14ac:dyDescent="0.2">
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27" t="s">
+      <c r="D43" s="15"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H43" s="27"/>
+      <c r="H43" s="30"/>
     </row>
     <row r="44" spans="2:9" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29" t="s">
+      <c r="D44" s="15"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="H44" s="29"/>
+      <c r="H44" s="18"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" autoFilter="0"/>
